--- a/biology/Botanique/Ericales/Ericales.xlsx
+++ b/biology/Botanique/Ericales/Ericales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Ericales (Éricales en français) sont un ordre vaste et diversifié de plantes dicotylédones. Les espèces de cet ordre ont une importance commerciale considérable, notamment pour le thé, le kaki, la myrtille, le kiwi, la noix du Brésil, l'arganier et l'azalée. L'ordre comprend des arbres, des buissons, des lianes et des plantes herbacées et même des plantes carnivores (par exemple, le genre Sarracenia).
 </t>
@@ -511,10 +523,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On y trouve des ligneux, des sous-arbrisseaux et des arbustes, parfois de petits arbres, souvent présents dans des lieux acides, mais aussi des lianes et des plantes herbacées. De nombreuses espèces ont cinq pétales. La fusion des pétales en tant que trait était traditionnellement utilisée pour placer la commande dans la sous-classe des Sympetalae[1].
-Certaines familles de l'ordre se distinguent par leur capacité exceptionnelle à accumuler de l'aluminium[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On y trouve des ligneux, des sous-arbrisseaux et des arbustes, parfois de petits arbres, souvent présents dans des lieux acides, mais aussi des lianes et des plantes herbacées. De nombreuses espèces ont cinq pétales. La fusion des pétales en tant que trait était traditionnellement utilisée pour placer la commande dans la sous-classe des Sympetalae.
+Certaines familles de l'ordre se distinguent par leur capacité exceptionnelle à accumuler de l'aluminium.
 La plupart des Éricales présentent le phénomène de la mycorhize, la symbiose entre la plante et un champignon situé dans ses racines.
 </t>
         </is>
@@ -544,7 +558,9 @@
           <t>Distribution et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Ericales sont un ordre cosmopolite. Les aires de répartition des familles varient considérablement - alors que certaines sont limitées aux tropiques, d'autres existent principalement dans les régions arctiques ou tempérées. L'ordre entier contient plus de 8 000 espèces.
 </t>
@@ -575,7 +591,9 @@
           <t>Importance économique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La plante la plus utilisée commercialement dans l'ordre est le thé (Camellia sinensis) de la famille Theaceae. L'ordre comprend également certains fruits comestibles, notamment le kiwi (en particulier Actinidia deliciosa), le kaki (genre Diospyros), la myrtille, l'airelle, la canneberge, la noix du Brésil et le Sapotier. L'ordre comprend également le karité (Vitellaria paradoxa), qui est la principale source de lipides alimentaires pour des millions d'Africains subsahariens. De nombreuses espèces d'Ericales sont cultivées pour leurs fleurs voyantes : des exemples bien connus sont l'azalée, le rhododendron, le camélia, la bruyère, la primevère, le cyclamen, le phlox et l'impatiente.
 </t>
@@ -606,9 +624,11 @@
           <t>Liste des familles</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En classification classique de Cronquist (1981)[3] il comprend huit familles :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En classification classique de Cronquist (1981) il comprend huit familles :
 famille Cléthracées
 famille Cyrillacées
 famille Empétracées
@@ -617,7 +637,7 @@
 famille Grubbiacées
 famille Monotropacées
 famille Pyrolacées
-La classification phylogénétique APG (1998)[4] en a considérablement modifié la composition :
+La classification phylogénétique APG (1998) en a considérablement modifié la composition :
 ordre Ericales
 famille Actinidiaceae (famille du kiwi)
 famille Balsaminaceae
@@ -645,7 +665,7 @@
 famille Tetrameristaceae
 famille Theaceae (famille du théier)
 famille Theophrastaceae
-En classification phylogénétique APG II (2003)[5] la composition est un peu modifiée :
+En classification phylogénétique APG II (2003) la composition est un peu modifiée :
 ordre Ericales
 famille Actinidiaceae
 famille Balsaminaceae
@@ -675,7 +695,7 @@
 famille Theaceae
 famille Theophrastaceae
 NB "[+ ...]" = famille optionnelle
-En classification phylogénétique APG III (2009)[6] la composition est :
+En classification phylogénétique APG III (2009) la composition est :
 ordre Ericales Bercht. &amp; J.Presl (1820)
 famille Actinidiaceae Engl. &amp; Gilg. (1824)
 famille Balsaminaceae A.Rich. (1824)
@@ -699,7 +719,7 @@
 famille Symplocaceae Desf. (1820)
 famille Tetrameristaceae Hutch. (1959) (incluant Pellicieraceae L.Beauvis.)
 famille Theaceae Mirb. ex Ker Gawl. (1816)
-Relations phylogénétiques probables entre les familles des Ericales[8] :
+Relations phylogénétiques probables entre les familles des Ericales :
 </t>
         </is>
       </c>
